--- a/Justgrowth_Pattern_Template.xlsx
+++ b/Justgrowth_Pattern_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Povilas/Dropbox/Projects/Metformin_project/Bacterial Growth Assays/Media growth assays/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Povilas/Scripts/Growth_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="14">
   <si>
     <t>Labels</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Soy peptone</t>
+  </si>
+  <si>
+    <t>NGM</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="58" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -597,8 +600,12 @@
       <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -630,8 +637,12 @@
       <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -663,8 +674,12 @@
       <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -696,8 +711,12 @@
       <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -729,8 +748,12 @@
       <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -762,8 +785,12 @@
       <c r="J8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -798,7 +825,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,8 +936,12 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -950,8 +981,12 @@
       <c r="J4" s="6">
         <v>25</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="6">
+        <v>25</v>
+      </c>
+      <c r="L4" s="6">
+        <v>25</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -991,8 +1026,12 @@
       <c r="J5" s="6">
         <v>50</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6">
+        <v>50</v>
+      </c>
+      <c r="L5" s="6">
+        <v>50</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -1032,8 +1071,12 @@
       <c r="J6" s="6">
         <v>75</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6">
+        <v>75</v>
+      </c>
+      <c r="L6" s="6">
+        <v>75</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1073,8 +1116,12 @@
       <c r="J7" s="6">
         <v>100</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="6">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6">
+        <v>100</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -1114,8 +1161,12 @@
       <c r="J8" s="6">
         <v>150</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="6">
+        <v>150</v>
+      </c>
+      <c r="L8" s="6">
+        <v>150</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1166,7 +1217,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1277,8 +1328,12 @@
       <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -1318,8 +1373,12 @@
       <c r="J4" s="6">
         <v>2</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -1359,8 +1418,12 @@
       <c r="J5" s="6">
         <v>2</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -1400,8 +1463,12 @@
       <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1441,8 +1508,12 @@
       <c r="J7" s="6">
         <v>2</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -1482,8 +1553,12 @@
       <c r="J8" s="6">
         <v>2</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
